--- a/packages/app/public/templates/mitarbeiter.xlsx
+++ b/packages/app/public/templates/mitarbeiter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B31915-DFA2-49CB-A14B-EE9DEFE6F27E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865EEB8-CE6F-42AC-B016-C163823906DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmerliste" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Vorname</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Nachname</t>
-  </si>
-  <si>
-    <t>Freizeitname</t>
   </si>
   <si>
     <t>Geburts-
@@ -66,9 +63,6 @@
     <t>Leiter:</t>
   </si>
   <si>
-    <t>Freizeitleiter</t>
-  </si>
-  <si>
     <t>Anmelde-ID</t>
   </si>
   <si>
@@ -91,6 +85,18 @@
   </si>
   <si>
     <t>${table:anmeldungen.bemerkungen}</t>
+  </si>
+  <si>
+    <t>${bezeichnung}</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>${begin.german}</t>
+  </si>
+  <si>
+    <t>${ende.german}</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,10 +385,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,71 +447,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -917,7 +855,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -933,37 +871,37 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="D2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>43288</v>
-      </c>
-      <c r="G3" s="6">
-        <v>43298</v>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="7.15" customHeight="1">
@@ -973,49 +911,49 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.95" customHeight="1" thickTop="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="G7" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/packages/app/public/templates/mitarbeiter.xlsx
+++ b/packages/app/public/templates/mitarbeiter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865EEB8-CE6F-42AC-B016-C163823906DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BA682-6B45-4272-9913-7622DDF7AA1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Leiter:</t>
   </si>
   <si>
-    <t>Anmelde-ID</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.anmeldeID}</t>
-  </si>
-  <si>
     <t>${table:anmeldungen.person.nachname}</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>${ende.german}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.id}</t>
+  </si>
+  <si>
+    <t>Fortl.-ID</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy&quot;  -  &quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +139,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri Deluxe"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Deluxe"/>
       <family val="2"/>
@@ -361,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,29 +404,26 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -855,7 +846,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -871,19 +862,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="D2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
@@ -892,16 +883,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="7.15" customHeight="1">
@@ -912,7 +903,7 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>6</v>
@@ -935,25 +926,25 @@
     </row>
     <row r="7" spans="1:7" ht="27.95" customHeight="1" thickTop="1">
       <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/packages/app/public/templates/mitarbeiter.xlsx
+++ b/packages/app/public/templates/mitarbeiter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ec\ec-verwaltungs-app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BA682-6B45-4272-9913-7622DDF7AA1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AE61-A4DF-4465-997E-C87A4F79179D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Vorname</t>
   </si>
@@ -60,9 +60,6 @@
 datum</t>
   </si>
   <si>
-    <t>Leiter:</t>
-  </si>
-  <si>
     <t>${table:anmeldungen.person.nachname}</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>${bezeichnung}</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>${begin.german}</t>
   </si>
   <si>
@@ -97,6 +91,19 @@
   </si>
   <si>
     <t>Fortl.-ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leiter:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Deluxe"/>
+      </rPr>
+      <t>${hauptleiter.person.vorname} ${hauptleiter.person.nachname}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -107,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy&quot;  -  &quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +163,11 @@
       <name val="Calibri Deluxe"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Deluxe"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -400,10 +412,6 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -431,6 +439,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -846,7 +858,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -862,37 +874,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="D2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="7.15" customHeight="1">
@@ -903,7 +913,7 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>6</v>
@@ -925,35 +935,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.95" customHeight="1" thickTop="1">
-      <c r="A7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">
     <sortCondition ref="B7"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="2" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
